--- a/data/raw/election/voters-age-sex-education/2023/Sinop.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Sinop.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="38">
   <si>
     <t>Sinop</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Türkeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -677,8 +684,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O178" sqref="O178"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162:K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,48 +1046,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1783,8 +1799,8 @@
       <c r="L22" s="4">
         <v>31</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.04</v>
+      <c r="M22" s="6">
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1822,8 +1838,8 @@
       <c r="L23" s="4">
         <v>33</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.1479999999999999</v>
+      <c r="M23" s="6">
+        <v>1148</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1863,8 +1879,8 @@
       <c r="L24" s="4">
         <v>35</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.123</v>
+      <c r="M24" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,8 +1918,8 @@
       <c r="L25" s="4">
         <v>32</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M25" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2062,35 +2078,35 @@
       <c r="L29" s="4">
         <v>31</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.242</v>
+      <c r="M29" s="6">
+        <v>1242</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
         <v>635</v>
       </c>
-      <c r="D30" s="5">
-        <v>1.179</v>
-      </c>
-      <c r="E30" s="5">
-        <v>6.6959999999999997</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2.4350000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3.6030000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2.3719999999999999</v>
+      <c r="D30" s="6">
+        <v>1179</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6696</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2112</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2435</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3603</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2372</v>
       </c>
       <c r="J30" s="5">
         <v>173</v>
@@ -2101,15 +2117,15 @@
       <c r="L30" s="5">
         <v>421</v>
       </c>
-      <c r="M30" s="5">
-        <v>19.655999999999999</v>
+      <c r="M30" s="6">
+        <v>19656</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2166,8 +2182,8 @@
       <c r="G32" s="4">
         <v>573</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.198</v>
+      <c r="H32" s="8">
+        <v>1198</v>
       </c>
       <c r="I32" s="4">
         <v>228</v>
@@ -2181,8 +2197,8 @@
       <c r="L32" s="4">
         <v>11</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.0579999999999998</v>
+      <c r="M32" s="6">
+        <v>2058</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2205,8 +2221,8 @@
       <c r="G33" s="4">
         <v>508</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.163</v>
+      <c r="H33" s="8">
+        <v>1163</v>
       </c>
       <c r="I33" s="4">
         <v>367</v>
@@ -2220,8 +2236,8 @@
       <c r="L33" s="4">
         <v>6</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.1110000000000002</v>
+      <c r="M33" s="6">
+        <v>2111</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2261,8 +2277,8 @@
       <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.363</v>
+      <c r="M34" s="6">
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2300,8 +2316,8 @@
       <c r="L35" s="4">
         <v>4</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.37</v>
+      <c r="M35" s="6">
+        <v>1370</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,8 +2357,8 @@
       <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.476</v>
+      <c r="M36" s="6">
+        <v>1476</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,8 +2396,8 @@
       <c r="L37" s="4">
         <v>8</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.4319999999999999</v>
+      <c r="M37" s="6">
+        <v>1432</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2421,8 +2437,8 @@
       <c r="L38" s="4">
         <v>7</v>
       </c>
-      <c r="M38" s="5">
-        <v>1.548</v>
+      <c r="M38" s="6">
+        <v>1548</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,8 +2476,8 @@
       <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.4350000000000001</v>
+      <c r="M39" s="6">
+        <v>1435</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,8 +2517,8 @@
       <c r="L40" s="4">
         <v>3</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.4039999999999999</v>
+      <c r="M40" s="6">
+        <v>1404</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2540,8 +2556,8 @@
       <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.4359999999999999</v>
+      <c r="M41" s="6">
+        <v>1436</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2581,8 +2597,8 @@
       <c r="L42" s="4">
         <v>5</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M42" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2620,8 +2636,8 @@
       <c r="L43" s="4">
         <v>7</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.236</v>
+      <c r="M43" s="6">
+        <v>1236</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2661,8 +2677,8 @@
       <c r="L44" s="4">
         <v>4</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.234</v>
+      <c r="M44" s="6">
+        <v>1234</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2700,8 +2716,8 @@
       <c r="L45" s="4">
         <v>8</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.2350000000000001</v>
+      <c r="M45" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,8 +2757,8 @@
       <c r="L46" s="4">
         <v>5</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.355</v>
+      <c r="M46" s="6">
+        <v>1355</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,8 +2796,8 @@
       <c r="L47" s="4">
         <v>9</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.337</v>
+      <c r="M47" s="6">
+        <v>1337</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,8 +2837,8 @@
       <c r="L48" s="4">
         <v>4</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.4019999999999999</v>
+      <c r="M48" s="6">
+        <v>1402</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2860,8 +2876,8 @@
       <c r="L49" s="4">
         <v>9</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.425</v>
+      <c r="M49" s="6">
+        <v>1425</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,8 +2917,8 @@
       <c r="L50" s="4">
         <v>3</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.24</v>
+      <c r="M50" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2940,8 +2956,8 @@
       <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.3260000000000001</v>
+      <c r="M51" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3020,8 +3036,8 @@
       <c r="L53" s="4">
         <v>6</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M53" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3061,8 +3077,8 @@
       <c r="L54" s="4">
         <v>7</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.3</v>
+      <c r="M54" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3100,35 +3116,35 @@
       <c r="L55" s="4">
         <v>12</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.8560000000000001</v>
+      <c r="M55" s="6">
+        <v>1856</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.595</v>
-      </c>
-      <c r="E56" s="5">
-        <v>9.2530000000000001</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="G56" s="5">
-        <v>5.2590000000000003</v>
-      </c>
-      <c r="H56" s="5">
-        <v>7.4480000000000004</v>
-      </c>
-      <c r="I56" s="5">
-        <v>4.3760000000000003</v>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>1539</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1595</v>
+      </c>
+      <c r="E56" s="6">
+        <v>9253</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3833</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5259</v>
+      </c>
+      <c r="H56" s="6">
+        <v>7448</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4376</v>
       </c>
       <c r="J56" s="5">
         <v>459</v>
@@ -3139,15 +3155,15 @@
       <c r="L56" s="5">
         <v>142</v>
       </c>
-      <c r="M56" s="5">
-        <v>33.933</v>
+      <c r="M56" s="6">
+        <v>33933</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4146,15 +4162,15 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
         <v>405</v>
       </c>
       <c r="D82" s="5">
         <v>494</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.5069999999999999</v>
+      <c r="E82" s="6">
+        <v>1507</v>
       </c>
       <c r="F82" s="5">
         <v>542</v>
@@ -4177,15 +4193,15 @@
       <c r="L82" s="5">
         <v>29</v>
       </c>
-      <c r="M82" s="5">
-        <v>4.1669999999999998</v>
+      <c r="M82" s="6">
+        <v>4167</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5184,27 +5200,27 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.373</v>
-      </c>
-      <c r="E108" s="5">
-        <v>3.782</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.1559999999999999</v>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>1128</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1373</v>
+      </c>
+      <c r="E108" s="6">
+        <v>3782</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1402</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1864</v>
+      </c>
+      <c r="H108" s="6">
+        <v>2078</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1156</v>
       </c>
       <c r="J108" s="5">
         <v>107</v>
@@ -5215,15 +5231,15 @@
       <c r="L108" s="5">
         <v>76</v>
       </c>
-      <c r="M108" s="5">
-        <v>12.976000000000001</v>
+      <c r="M108" s="6">
+        <v>12976</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6222,24 +6238,24 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
         <v>346</v>
       </c>
       <c r="D134" s="5">
         <v>623</v>
       </c>
-      <c r="E134" s="5">
-        <v>4.6710000000000003</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.151</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.581</v>
+      <c r="E134" s="6">
+        <v>4671</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1151</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1185</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1581</v>
       </c>
       <c r="I134" s="5">
         <v>835</v>
@@ -6253,15 +6269,15 @@
       <c r="L134" s="5">
         <v>111</v>
       </c>
-      <c r="M134" s="5">
-        <v>10.563000000000001</v>
+      <c r="M134" s="6">
+        <v>10563</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6333,8 +6349,8 @@
       <c r="L136" s="4">
         <v>10</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M136" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6372,8 +6388,8 @@
       <c r="L137" s="4">
         <v>1</v>
       </c>
-      <c r="M137" s="5">
-        <v>1</v>
+      <c r="M137" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6893,8 +6909,8 @@
       <c r="L150" s="4">
         <v>10</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.081</v>
+      <c r="M150" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6932,8 +6948,8 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.165</v>
+      <c r="M151" s="6">
+        <v>1165</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6973,8 +6989,8 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.004</v>
+      <c r="M152" s="6">
+        <v>1004</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7012,8 +7028,8 @@
       <c r="L153" s="4">
         <v>10</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.1160000000000001</v>
+      <c r="M153" s="6">
+        <v>1116</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7053,8 +7069,8 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.087</v>
+      <c r="M154" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7252,35 +7268,35 @@
       <c r="L159" s="4">
         <v>12</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M159" s="6">
+        <v>1295</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
         <v>567</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.056</v>
-      </c>
-      <c r="E160" s="5">
-        <v>7.1070000000000002</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.9129999999999998</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.734</v>
-      </c>
-      <c r="H160" s="5">
-        <v>5.085</v>
-      </c>
-      <c r="I160" s="5">
-        <v>3.1859999999999999</v>
+      <c r="D160" s="6">
+        <v>1056</v>
+      </c>
+      <c r="E160" s="6">
+        <v>7107</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2913</v>
+      </c>
+      <c r="G160" s="6">
+        <v>2734</v>
+      </c>
+      <c r="H160" s="6">
+        <v>5085</v>
+      </c>
+      <c r="I160" s="6">
+        <v>3186</v>
       </c>
       <c r="J160" s="5">
         <v>248</v>
@@ -7291,15 +7307,15 @@
       <c r="L160" s="5">
         <v>156</v>
       </c>
-      <c r="M160" s="5">
-        <v>23.102</v>
+      <c r="M160" s="6">
+        <v>23102</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7324,7 +7340,7 @@
       <c r="J161" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L161" s="2" t="s">
@@ -7365,8 +7381,8 @@
       <c r="J162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K162" s="4" t="s">
-        <v>15</v>
+      <c r="K162" s="4">
+        <v>0</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
@@ -7404,8 +7420,8 @@
       <c r="J163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>15</v>
+      <c r="K163" s="4">
+        <v>0</v>
       </c>
       <c r="L163" s="4">
         <v>1</v>
@@ -7445,8 +7461,8 @@
       <c r="J164" s="4">
         <v>1</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>15</v>
+      <c r="K164" s="4">
+        <v>0</v>
       </c>
       <c r="L164" s="4">
         <v>1</v>
@@ -7484,8 +7500,8 @@
       <c r="J165" s="4">
         <v>1</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>15</v>
+      <c r="K165" s="4">
+        <v>0</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -7525,8 +7541,8 @@
       <c r="J166" s="4">
         <v>2</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>15</v>
+      <c r="K166" s="4">
+        <v>0</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>15</v>
@@ -7564,8 +7580,8 @@
       <c r="J167" s="4">
         <v>1</v>
       </c>
-      <c r="K167" s="4" t="s">
-        <v>15</v>
+      <c r="K167" s="4">
+        <v>0</v>
       </c>
       <c r="L167" s="4">
         <v>1</v>
@@ -7605,8 +7621,8 @@
       <c r="J168" s="4">
         <v>1</v>
       </c>
-      <c r="K168" s="4" t="s">
-        <v>15</v>
+      <c r="K168" s="4">
+        <v>0</v>
       </c>
       <c r="L168" s="4">
         <v>1</v>
@@ -7644,8 +7660,8 @@
       <c r="J169" s="4">
         <v>3</v>
       </c>
-      <c r="K169" s="4" t="s">
-        <v>15</v>
+      <c r="K169" s="4">
+        <v>0</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>15</v>
@@ -7685,8 +7701,8 @@
       <c r="J170" s="4">
         <v>2</v>
       </c>
-      <c r="K170" s="4" t="s">
-        <v>15</v>
+      <c r="K170" s="4">
+        <v>0</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>15</v>
@@ -7724,8 +7740,8 @@
       <c r="J171" s="4">
         <v>2</v>
       </c>
-      <c r="K171" s="4" t="s">
-        <v>15</v>
+      <c r="K171" s="4">
+        <v>0</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>15</v>
@@ -7765,8 +7781,8 @@
       <c r="J172" s="4">
         <v>1</v>
       </c>
-      <c r="K172" s="4" t="s">
-        <v>15</v>
+      <c r="K172" s="4">
+        <v>0</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>15</v>
@@ -7804,8 +7820,8 @@
       <c r="J173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K173" s="4" t="s">
-        <v>15</v>
+      <c r="K173" s="4">
+        <v>0</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>15</v>
@@ -7845,8 +7861,8 @@
       <c r="J174" s="4">
         <v>1</v>
       </c>
-      <c r="K174" s="4" t="s">
-        <v>15</v>
+      <c r="K174" s="4">
+        <v>0</v>
       </c>
       <c r="L174" s="4">
         <v>4</v>
@@ -7884,8 +7900,8 @@
       <c r="J175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K175" s="4" t="s">
-        <v>15</v>
+      <c r="K175" s="4">
+        <v>0</v>
       </c>
       <c r="L175" s="4">
         <v>1</v>
@@ -7925,8 +7941,8 @@
       <c r="J176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K176" s="4" t="s">
-        <v>15</v>
+      <c r="K176" s="4">
+        <v>0</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>15</v>
@@ -7964,8 +7980,8 @@
       <c r="J177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K177" s="4" t="s">
-        <v>15</v>
+      <c r="K177" s="4">
+        <v>0</v>
       </c>
       <c r="L177" s="4">
         <v>3</v>
@@ -8005,8 +8021,8 @@
       <c r="J178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K178" s="4" t="s">
-        <v>15</v>
+      <c r="K178" s="4">
+        <v>0</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>15</v>
@@ -8044,8 +8060,8 @@
       <c r="J179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K179" s="4" t="s">
-        <v>15</v>
+      <c r="K179" s="4">
+        <v>0</v>
       </c>
       <c r="L179" s="4">
         <v>1</v>
@@ -8085,8 +8101,8 @@
       <c r="J180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>15</v>
+      <c r="K180" s="4">
+        <v>0</v>
       </c>
       <c r="L180" s="4">
         <v>1</v>
@@ -8124,8 +8140,8 @@
       <c r="J181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K181" s="4" t="s">
-        <v>15</v>
+      <c r="K181" s="4">
+        <v>0</v>
       </c>
       <c r="L181" s="4">
         <v>2</v>
@@ -8165,8 +8181,8 @@
       <c r="J182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="4" t="s">
-        <v>15</v>
+      <c r="K182" s="4">
+        <v>0</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>15</v>
@@ -8204,8 +8220,8 @@
       <c r="J183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="4" t="s">
-        <v>15</v>
+      <c r="K183" s="4">
+        <v>0</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>15</v>
@@ -8245,8 +8261,8 @@
       <c r="J184" s="4">
         <v>1</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>15</v>
+      <c r="K184" s="4">
+        <v>0</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>15</v>
@@ -8284,8 +8300,8 @@
       <c r="J185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K185" s="4" t="s">
-        <v>15</v>
+      <c r="K185" s="4">
+        <v>0</v>
       </c>
       <c r="L185" s="4">
         <v>2</v>
@@ -8298,15 +8314,15 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
         <v>361</v>
       </c>
       <c r="D186" s="5">
         <v>409</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.254</v>
+      <c r="E186" s="6">
+        <v>2254</v>
       </c>
       <c r="F186" s="5">
         <v>369</v>
@@ -8323,21 +8339,21 @@
       <c r="J186" s="5">
         <v>16</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="4">
         <v>0</v>
       </c>
       <c r="L186" s="5">
         <v>20</v>
       </c>
-      <c r="M186" s="5">
-        <v>4.9550000000000001</v>
+      <c r="M186" s="6">
+        <v>4955</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8394,8 +8410,8 @@
       <c r="G188" s="4">
         <v>393</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.7749999999999999</v>
+      <c r="H188" s="8">
+        <v>1775</v>
       </c>
       <c r="I188" s="4">
         <v>385</v>
@@ -8409,8 +8425,8 @@
       <c r="L188" s="4">
         <v>18</v>
       </c>
-      <c r="M188" s="5">
-        <v>2.5760000000000001</v>
+      <c r="M188" s="6">
+        <v>2576</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8433,8 +8449,8 @@
       <c r="G189" s="4">
         <v>271</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.7010000000000001</v>
+      <c r="H189" s="8">
+        <v>1701</v>
       </c>
       <c r="I189" s="4">
         <v>593</v>
@@ -8448,8 +8464,8 @@
       <c r="L189" s="4">
         <v>8</v>
       </c>
-      <c r="M189" s="5">
-        <v>2.58</v>
+      <c r="M189" s="6">
+        <v>2580</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8489,8 +8505,8 @@
       <c r="L190" s="4">
         <v>7</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.986</v>
+      <c r="M190" s="6">
+        <v>1986</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8516,8 +8532,8 @@
       <c r="H191" s="4">
         <v>460</v>
       </c>
-      <c r="I191" s="4">
-        <v>1.1859999999999999</v>
+      <c r="I191" s="8">
+        <v>1186</v>
       </c>
       <c r="J191" s="4">
         <v>79</v>
@@ -8528,8 +8544,8 @@
       <c r="L191" s="4">
         <v>3</v>
       </c>
-      <c r="M191" s="5">
-        <v>2.0030000000000001</v>
+      <c r="M191" s="6">
+        <v>2003</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8557,8 +8573,8 @@
       <c r="H192" s="4">
         <v>675</v>
       </c>
-      <c r="I192" s="4">
-        <v>1.018</v>
+      <c r="I192" s="8">
+        <v>1018</v>
       </c>
       <c r="J192" s="4">
         <v>123</v>
@@ -8569,8 +8585,8 @@
       <c r="L192" s="4">
         <v>2</v>
       </c>
-      <c r="M192" s="5">
-        <v>2.2480000000000002</v>
+      <c r="M192" s="6">
+        <v>2248</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8596,8 +8612,8 @@
       <c r="H193" s="4">
         <v>557</v>
       </c>
-      <c r="I193" s="4">
-        <v>1.034</v>
+      <c r="I193" s="8">
+        <v>1034</v>
       </c>
       <c r="J193" s="4">
         <v>142</v>
@@ -8608,8 +8624,8 @@
       <c r="L193" s="4">
         <v>6</v>
       </c>
-      <c r="M193" s="5">
-        <v>2.1120000000000001</v>
+      <c r="M193" s="6">
+        <v>2112</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8649,8 +8665,8 @@
       <c r="L194" s="4">
         <v>2</v>
       </c>
-      <c r="M194" s="5">
-        <v>2.339</v>
+      <c r="M194" s="6">
+        <v>2339</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8688,8 +8704,8 @@
       <c r="L195" s="4">
         <v>13</v>
       </c>
-      <c r="M195" s="5">
-        <v>2.399</v>
+      <c r="M195" s="6">
+        <v>2399</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8729,8 +8745,8 @@
       <c r="L196" s="4">
         <v>11</v>
       </c>
-      <c r="M196" s="5">
-        <v>2.391</v>
+      <c r="M196" s="6">
+        <v>2391</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8768,8 +8784,8 @@
       <c r="L197" s="4">
         <v>12</v>
       </c>
-      <c r="M197" s="5">
-        <v>2.5249999999999999</v>
+      <c r="M197" s="6">
+        <v>2525</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8809,8 +8825,8 @@
       <c r="L198" s="4">
         <v>10</v>
       </c>
-      <c r="M198" s="5">
-        <v>2.0739999999999998</v>
+      <c r="M198" s="6">
+        <v>2074</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,8 +8864,8 @@
       <c r="L199" s="4">
         <v>8</v>
       </c>
-      <c r="M199" s="5">
-        <v>2.1850000000000001</v>
+      <c r="M199" s="6">
+        <v>2185</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,8 +8905,8 @@
       <c r="L200" s="4">
         <v>12</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.9159999999999999</v>
+      <c r="M200" s="6">
+        <v>1916</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8928,8 +8944,8 @@
       <c r="L201" s="4">
         <v>17</v>
       </c>
-      <c r="M201" s="5">
-        <v>2.19</v>
+      <c r="M201" s="6">
+        <v>2190</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8969,8 +8985,8 @@
       <c r="L202" s="4">
         <v>24</v>
       </c>
-      <c r="M202" s="5">
-        <v>2.048</v>
+      <c r="M202" s="6">
+        <v>2048</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9008,8 +9024,8 @@
       <c r="L203" s="4">
         <v>21</v>
       </c>
-      <c r="M203" s="5">
-        <v>2.2120000000000002</v>
+      <c r="M203" s="6">
+        <v>2212</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9049,8 +9065,8 @@
       <c r="L204" s="4">
         <v>26</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.9790000000000001</v>
+      <c r="M204" s="6">
+        <v>1979</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9064,8 +9080,8 @@
       <c r="D205" s="4">
         <v>42</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E205" s="8">
+        <v>1059</v>
       </c>
       <c r="F205" s="4">
         <v>170</v>
@@ -9088,8 +9104,8 @@
       <c r="L205" s="4">
         <v>16</v>
       </c>
-      <c r="M205" s="5">
-        <v>2.0470000000000002</v>
+      <c r="M205" s="6">
+        <v>2047</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9129,8 +9145,8 @@
       <c r="L206" s="4">
         <v>16</v>
       </c>
-      <c r="M206" s="5">
-        <v>1.776</v>
+      <c r="M206" s="6">
+        <v>1776</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9144,8 +9160,8 @@
       <c r="D207" s="4">
         <v>85</v>
       </c>
-      <c r="E207" s="4">
-        <v>1.0680000000000001</v>
+      <c r="E207" s="8">
+        <v>1068</v>
       </c>
       <c r="F207" s="4">
         <v>77</v>
@@ -9168,8 +9184,8 @@
       <c r="L207" s="4">
         <v>14</v>
       </c>
-      <c r="M207" s="5">
-        <v>1.837</v>
+      <c r="M207" s="6">
+        <v>1837</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9209,8 +9225,8 @@
       <c r="L208" s="4">
         <v>16</v>
       </c>
-      <c r="M208" s="5">
-        <v>1.268</v>
+      <c r="M208" s="6">
+        <v>1268</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9248,8 +9264,8 @@
       <c r="L209" s="4">
         <v>11</v>
       </c>
-      <c r="M209" s="5">
-        <v>1.367</v>
+      <c r="M209" s="6">
+        <v>1367</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9289,8 +9305,8 @@
       <c r="L210" s="4">
         <v>29</v>
       </c>
-      <c r="M210" s="5">
-        <v>1.5429999999999999</v>
+      <c r="M210" s="6">
+        <v>1543</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9304,8 +9320,8 @@
       <c r="D211" s="4">
         <v>377</v>
       </c>
-      <c r="E211" s="4">
-        <v>1.4450000000000001</v>
+      <c r="E211" s="8">
+        <v>1445</v>
       </c>
       <c r="F211" s="4">
         <v>10</v>
@@ -9328,38 +9344,38 @@
       <c r="L211" s="4">
         <v>34</v>
       </c>
-      <c r="M211" s="5">
-        <v>2.2829999999999999</v>
+      <c r="M211" s="6">
+        <v>2283</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
         <v>376</v>
       </c>
       <c r="D212" s="5">
         <v>885</v>
       </c>
-      <c r="E212" s="5">
-        <v>10.638999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>4.383</v>
-      </c>
-      <c r="G212" s="5">
-        <v>5.5279999999999996</v>
-      </c>
-      <c r="H212" s="5">
-        <v>13.339</v>
-      </c>
-      <c r="I212" s="5">
-        <v>12.7</v>
-      </c>
-      <c r="J212" s="5">
-        <v>1.2989999999999999</v>
+      <c r="E212" s="6">
+        <v>10639</v>
+      </c>
+      <c r="F212" s="6">
+        <v>4383</v>
+      </c>
+      <c r="G212" s="6">
+        <v>5528</v>
+      </c>
+      <c r="H212" s="6">
+        <v>13339</v>
+      </c>
+      <c r="I212" s="6">
+        <v>12700</v>
+      </c>
+      <c r="J212" s="6">
+        <v>1299</v>
       </c>
       <c r="K212" s="5">
         <v>399</v>
@@ -9367,15 +9383,15 @@
       <c r="L212" s="5">
         <v>336</v>
       </c>
-      <c r="M212" s="5">
-        <v>49.884</v>
+      <c r="M212" s="6">
+        <v>49884</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10374,27 +10390,27 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="5">
         <v>540</v>
       </c>
       <c r="D238" s="5">
         <v>822</v>
       </c>
-      <c r="E238" s="5">
-        <v>3.839</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="G238" s="5">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.33</v>
+      <c r="E238" s="6">
+        <v>3839</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1128</v>
+      </c>
+      <c r="G238" s="6">
+        <v>1537</v>
+      </c>
+      <c r="H238" s="6">
+        <v>2445</v>
+      </c>
+      <c r="I238" s="6">
+        <v>1330</v>
       </c>
       <c r="J238" s="5">
         <v>124</v>
@@ -10405,8 +10421,18 @@
       <c r="L238" s="5">
         <v>739</v>
       </c>
-      <c r="M238" s="5">
-        <v>12.51</v>
+      <c r="M238" s="6">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
